--- a/data/data/data_times.xlsx
+++ b/data/data/data_times.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t xml:space="preserve">participant</t>
   </si>
@@ -70,12 +70,6 @@
     <t xml:space="preserve">TIME_total</t>
   </si>
   <si>
-    <t xml:space="preserve">s.6632c60b-7a46-419c-a8f7-a23d2dd18294.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-10-27-11-02</t>
-  </si>
-  <si>
     <t xml:space="preserve">s.0586c08c-5859-408d-b688-7ae58753f134.txt</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t xml:space="preserve">2021-10-27-11-06</t>
   </si>
   <si>
-    <t xml:space="preserve">s.f1f4a330-e6af-4faa-87c3-71c5d270a3cd.txt</t>
-  </si>
-  <si>
     <t xml:space="preserve">s.e48480c1-c5b2-40b7-b36a-66406ac1f349.txt</t>
   </si>
   <si>
@@ -97,19 +88,13 @@
     <t xml:space="preserve">2021-10-27-11-03</t>
   </si>
   <si>
-    <t xml:space="preserve">s.095d994b-e57e-49a1-a9a7-13bf65619b61.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.c13fe347-9e78-458b-8355-639e291dd038.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.136f3554-c513-47d8-8a65-89dffe08dcef.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.a010fa36-9cf3-401b-9c46-7bdada85b9a5.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-10-27-11-40</t>
+    <t xml:space="preserve">s.6f733ebc-0775-4b01-8461-354c0a1fa31e.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-04-07-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-04-07-39</t>
   </si>
   <si>
     <t xml:space="preserve">s.c60bf128-6745-4307-9ac0-19f251bd6740.txt</t>
@@ -121,16 +106,22 @@
     <t xml:space="preserve">2021-10-27-11-08</t>
   </si>
   <si>
-    <t xml:space="preserve">s.a4cd6f19-e821-4a1c-ac37-171ed7ea15f3.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-10-27-20-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.fdd34a39-ba31-450d-ba80-47abfce233aa.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-10-27-11-01</t>
+    <t xml:space="preserve">s.2da7d420-8872-462f-9cfe-1601ea4bbce7.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-03-19-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-03-19-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.19855e18-9b1d-4fc5-9d73-10a488ea28a5.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-04-07-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-04-07-19</t>
   </si>
   <si>
     <t xml:space="preserve">s.27ccadf9-e714-4d77-9a3a-2d6c9d2f334c.txt</t>
@@ -139,16 +130,43 @@
     <t xml:space="preserve">2021-10-27-11-05</t>
   </si>
   <si>
+    <t xml:space="preserve">s.3b5a3439-0842-4963-88d2-01d804a827be.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-03-22-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-03-22-49</t>
+  </si>
+  <si>
     <t xml:space="preserve">s.fe0d800a-b557-42c1-950a-fa787ead835b.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">s.3c16804a-79f8-4bcc-9956-cdf237d35c01.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.8f7a75fa-91d7-41c3-968f-b28f5eff2993.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-10-26-13-16</t>
+    <t xml:space="preserve">s.0289eed0-7f87-4520-bf64-cf2b02349d8e.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-04-07-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-04-07-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.022b509f-ed47-4580-994d-d680fcbb8140.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-03-18-52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-03-19-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.afa22d63-a5ad-403d-9bb0-f1b2137ddf56.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-04-08-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-04-08-21</t>
   </si>
   <si>
     <t xml:space="preserve">s.a52d5052-693b-4409-98ce-71223cae48b3.txt</t>
@@ -172,9 +190,6 @@
     <t xml:space="preserve">s.3cad5b69-fbe1-4bd9-b077-fe0f72d6d36a.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">s.f2896dfc-586b-4fa5-9c4e-62576b7de3fd.txt</t>
-  </si>
-  <si>
     <t xml:space="preserve">s.a2d1576d-b269-4992-8d42-79b7c794e787.txt</t>
   </si>
   <si>
@@ -184,10 +199,13 @@
     <t xml:space="preserve">2021-10-27-11-16</t>
   </si>
   <si>
-    <t xml:space="preserve">s.4d6c2594-f891-466e-b117-ad9ea485c726.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.07afd402-15af-4a90-8d8c-23f1c5acd1a4.txt</t>
+    <t xml:space="preserve">s.bb3f3d7c-b3ff-45ba-8f28-49b15b1d0bef.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-03-09-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-03-09-45</t>
   </si>
 </sst>
 </file>
@@ -283,7 +301,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -304,7 +322,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.46"/>
   </cols>
   <sheetData>
@@ -363,19 +382,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>4778</v>
+        <v>13780</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1326</v>
+        <v>2956</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>2309</v>
+        <v>8370</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>43189</v>
+        <v>113733</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>7902</v>
+        <v>29260</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>0</v>
@@ -383,297 +402,360 @@
       <c r="N2" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="O2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>13780</v>
+        <v>4270</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2956</v>
+        <v>4000</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>8370</v>
+        <v>8178</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>113733</v>
+        <v>65664</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>29260</v>
+        <v>18759</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>5788</v>
+        <v>15288</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3747</v>
+        <v>10678</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>8114</v>
+        <v>7117</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>88218</v>
+        <v>133744</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>81273</v>
+        <v>14742</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>4270</v>
+        <v>3931</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>4000</v>
+        <v>4397</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>8178</v>
+        <v>3046</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>65664</v>
+        <v>182514</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>18759</v>
+        <v>27746</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>5043</v>
+        <v>12637</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2002</v>
+        <v>18482</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>4107</v>
+        <v>16721</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>88345</v>
+        <v>385002</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>40592</v>
+        <v>43491</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>9616</v>
+        <v>10757</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>2775</v>
+        <v>4325</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>4621</v>
+        <v>12261</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>99197</v>
+        <v>104642</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>23090</v>
+        <v>24904</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>7158</v>
+        <v>5984</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>2549</v>
+        <v>4182</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>6703</v>
+        <v>6228</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>136968</v>
+        <v>123691</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>9534</v>
+        <v>23601</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>4536</v>
+        <v>10066</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>2328</v>
+        <v>3700</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>3637</v>
+        <v>6466</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>158428</v>
+        <v>77722</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>16418</v>
+        <v>32021</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>3931</v>
+        <v>13387</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>4397</v>
+        <v>8206</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>3046</v>
+        <v>7094</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>182514</v>
+        <v>105036</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>27746</v>
+        <v>36514</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>9303</v>
+        <v>4296</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>3644</v>
+        <v>2238</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>8687</v>
+        <v>3801</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>134950</v>
+        <v>72570</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>36533</v>
+        <v>3514</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>6342</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>3065</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>7115</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>132068</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>31792</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>5984</v>
+        <v>16120</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>4182</v>
+        <v>7297</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>6228</v>
+        <v>5514</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>123691</v>
+        <v>77251</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>23601</v>
+        <v>39544</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="P13" s="0" t="n">
         <v>11</v>
@@ -681,292 +763,162 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>13387</v>
+        <v>19938</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>8206</v>
+        <v>4930</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>7094</v>
+        <v>17502</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>105036</v>
+        <v>147010</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>36514</v>
+        <v>24099</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>2811</v>
+        <v>35720</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>5126</v>
+        <v>8595</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>5389</v>
+        <v>9839</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>232542</v>
+        <v>136243</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>11079</v>
+        <v>28518</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>23</v>
+        <v>53</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>4744</v>
+        <v>7919</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>3789</v>
+        <v>4378</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>4113</v>
+        <v>10565</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>14668</v>
+        <v>121762</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>4141</v>
+        <v>23918</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>19938</v>
+        <v>3432</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>4930</v>
+        <v>1632</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>17502</v>
+        <v>1834</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>147010</v>
+        <v>34003</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>24099</v>
+        <v>9240</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>35720</v>
+        <v>3761</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>8595</v>
+        <v>2706</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>9839</v>
+        <v>6578</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>136243</v>
+        <v>83410</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>28518</v>
+        <v>32868</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>7919</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>4378</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>10565</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>121762</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>23918</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="O19" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="P19" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>3802</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>2183</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>2343</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>51130</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>2914</v>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>3432</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>1632</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1834</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>34003</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <v>9240</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="O21" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>2728</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>2477</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>1848</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>42884</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>14595</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>4077</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>2329</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>6675</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>68864</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <v>20418</v>
-      </c>
-      <c r="M23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
